--- a/Python/combined_knn10.xlsx
+++ b/Python/combined_knn10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C035046-F44C-47C0-A471-89AE1C4C1CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE25225-043E-49CB-9A37-B8E61CFB5625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,7 +56,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,15 +96,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,10 +123,1299 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>KNN average accuracy for 3 different values for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ε</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>combined!$I$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>combined!$I$31:$R$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.84684684684684686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84684684684684686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83783783783783783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81981981981981977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81081081081081086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81081081081081086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81981981981981977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-795F-4454-959C-0260EB4E1EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>combined!$I$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>combined!$I$32:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8288288288288288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81081081081081086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81081081081081086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7927927927927928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81981981981981977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77477477477477474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83783783783783783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-795F-4454-959C-0260EB4E1EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>combined!$I$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>combined!$I$33:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69369369369369371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69369369369369371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69369369369369371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69369369369369371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68468468468468469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67567567567567566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68468468468468469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60360360360360366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-795F-4454-959C-0260EB4E1EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="157345392"/>
+        <c:axId val="81930432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157345392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>K-nearest</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> neighbors</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81930432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81930432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Average accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157345392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9771ACC7-5038-4F02-A0E7-FFA241CF30E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ion Boardroom">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ion Boardroom">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,48 +1423,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="3B3059"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="EBEBEB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="B31166"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E33D6F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="E45F3C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="E9943A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="9B6BF2"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="D53DD0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="8F8F8F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ion Boardroom">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -198,35 +1488,18 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -250,26 +1523,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ion Boardroom">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -278,66 +1534,52 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="64000"/>
+                <a:lumMod val="118000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="92000"/>
+                <a:alpha val="100000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:lumMod val="114000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="84000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -346,28 +1588,22 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="45000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -375,12 +1611,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -392,66 +1626,67 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:hueMod val="124000"/>
+                <a:satMod val="148000"/>
+                <a:lumMod val="124000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="76000"/>
+                <a:hueMod val="89000"/>
+                <a:satMod val="164000"/>
+                <a:lumMod val="56000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect l="45000" t="65000" r="125000" b="100000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
+                <a:shade val="69000"/>
+                <a:hueMod val="91000"/>
+                <a:satMod val="164000"/>
+                <a:lumMod val="74000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
+                <a:hueMod val="124000"/>
+                <a:satMod val="140000"/>
+                <a:lumMod val="142000"/>
               </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Ion Boardroom" id="{FC33163D-4339-46B1-8EED-24C834239D99}" vid="{B8502691-933B-45FE-8764-BA278511EF27}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>10</v>
       </c>
@@ -543,46 +1778,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -677,7 +1912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -772,7 +2007,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -867,7 +2102,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -962,7 +2197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1057,7 +2292,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1152,7 +2387,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1247,7 +2482,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1342,7 +2577,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1437,7 +2672,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1532,7 +2767,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1627,7 +2862,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1722,7 +2957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1817,7 +3052,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1912,7 +3147,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2007,7 +3242,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2102,7 +3337,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2197,7 +3432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2292,7 +3527,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2387,7 +3622,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2482,7 +3717,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +3812,7 @@
         <v>0.60360360360360366</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2672,7 +3907,7 @@
         <v>0.63076923076923075</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2765,6 +4000,143 @@
       </c>
       <c r="AE25">
         <v>0.56521739130434778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>4</v>
+      </c>
+      <c r="M30" s="4">
+        <v>5</v>
+      </c>
+      <c r="N30" s="4">
+        <v>6</v>
+      </c>
+      <c r="O30" s="4">
+        <v>7</v>
+      </c>
+      <c r="P30" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>9</v>
+      </c>
+      <c r="R30" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="H31" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="I31">
+        <v>0.84684684684684686</v>
+      </c>
+      <c r="J31">
+        <v>0.84684684684684686</v>
+      </c>
+      <c r="K31">
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="L31">
+        <v>0.81981981981981977</v>
+      </c>
+      <c r="M31">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="N31">
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="O31">
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="P31">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="Q31">
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="R31">
+        <v>0.81981981981981977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="H32" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I32">
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="J32">
+        <v>0.8288288288288288</v>
+      </c>
+      <c r="K32">
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="L32">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="M32">
+        <v>0.80180180180180183</v>
+      </c>
+      <c r="N32">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="O32">
+        <v>0.7927927927927928</v>
+      </c>
+      <c r="P32">
+        <v>0.81981981981981977</v>
+      </c>
+      <c r="Q32">
+        <v>0.77477477477477474</v>
+      </c>
+      <c r="R32">
+        <v>0.83783783783783783</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H33" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J33">
+        <v>0.69369369369369371</v>
+      </c>
+      <c r="K33">
+        <v>0.69369369369369371</v>
+      </c>
+      <c r="L33">
+        <v>0.69369369369369371</v>
+      </c>
+      <c r="M33">
+        <v>0.69369369369369371</v>
+      </c>
+      <c r="N33">
+        <v>0.68468468468468469</v>
+      </c>
+      <c r="O33">
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="P33">
+        <v>0.68468468468468469</v>
+      </c>
+      <c r="Q33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R33">
+        <v>0.60360360360360366</v>
       </c>
     </row>
   </sheetData>
@@ -2774,5 +4146,6 @@
     <mergeCell ref="V2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python/combined_knn10.xlsx
+++ b/Python/combined_knn10.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE25225-043E-49CB-9A37-B8E61CFB5625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB555E6-5DE7-4A3A-8730-795383C93A5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>accuracy</t>
   </si>
@@ -38,6 +45,15 @@
   </si>
   <si>
     <t>0,05</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -96,16 +112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,12 +186,6 @@
               </a:rPr>
               <a:t>ε</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
             <a:endParaRPr lang="pt-BR">
               <a:effectLst/>
             </a:endParaRPr>
@@ -225,7 +237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.001</c:v>
+                  <c:v>0.10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,7 +334,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-795F-4454-959C-0260EB4E1EBC}"/>
+              <c16:uniqueId val="{00000000-7659-464A-B23D-A00F50A8FE3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -335,7 +347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -430,7 +442,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-795F-4454-959C-0260EB4E1EBC}"/>
+              <c16:uniqueId val="{00000001-7659-464A-B23D-A00F50A8FE3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -443,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>5%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -540,7 +552,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-795F-4454-959C-0260EB4E1EBC}"/>
+              <c16:uniqueId val="{00000002-7659-464A-B23D-A00F50A8FE3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -554,11 +566,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157345392"/>
-        <c:axId val="81930432"/>
+        <c:axId val="524786223"/>
+        <c:axId val="783598655"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157345392"/>
+        <c:axId val="524786223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,11 +597,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>K-nearest</a:t>
+                  <a:t>K-Nearest</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> neighbors</a:t>
+                  <a:t> Neighbors</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -661,7 +673,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81930432"/>
+        <c:crossAx val="783598655"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81930432"/>
+        <c:axId val="783598655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +722,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Average accuracy</a:t>
+                  <a:t>Average Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -775,7 +787,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157345392"/>
+        <c:crossAx val="524786223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1375,23 +1387,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>149542</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139064</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9771ACC7-5038-4F02-A0E7-FFA241CF30E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58BEAAC-6FCC-424B-8162-AFFA6C827209}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1780,42 +1792,42 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -4003,39 +4015,39 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
         <v>2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>3</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>4</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>5</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>6</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <v>7</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>8</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="3">
         <v>9</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>1E-3</v>
       </c>
       <c r="I31">
@@ -4070,7 +4082,7 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="H32" s="4">
+      <c r="H32" s="6">
         <v>0.01</v>
       </c>
       <c r="I32">
@@ -4105,7 +4117,7 @@
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H33" s="4">
+      <c r="H33" s="6">
         <v>0.05</v>
       </c>
       <c r="I33">
@@ -4137,6 +4149,68 @@
       </c>
       <c r="R33">
         <v>0.60360360360360366</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="I35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H36" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="I36">
+        <f>MAX(I31:R31)</f>
+        <v>0.84684684684684686</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(I31:R31)</f>
+        <v>0.81981981981981988</v>
+      </c>
+      <c r="K36">
+        <f>_xlfn.STDEV.S(I31:R31)</f>
+        <v>1.8018018018018007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H37" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:I38" si="0">MAX(I32:R32)</f>
+        <v>0.83783783783783783</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:J38" si="1">AVERAGE(I32:R32)</f>
+        <v>0.80810810810810807</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:K38" si="2">_xlfn.STDEV.S(I32:R32)</f>
+        <v>1.8043025688648406E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:18" x14ac:dyDescent="0.3">
+      <c r="H38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.69369369369369371</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>2.7522977146881913E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4146,6 +4220,7 @@
     <mergeCell ref="V2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>